--- a/download/partdb.xlsx
+++ b/download/partdb.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16245" windowHeight="7185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="igem_team" sheetId="2" r:id="rId1"/>
     <sheet name="igem_part" sheetId="1" r:id="rId2"/>
-    <sheet name="igem_obs" sheetId="3" r:id="rId3"/>
-    <sheet name="igem_device" sheetId="4" r:id="rId4"/>
+    <sheet name="igem_device" sheetId="4" r:id="rId3"/>
+    <sheet name="igem_obs" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,10 +36,6 @@
     <t>Baltimore_BioCrew</t>
   </si>
   <si>
-    <t>Bbid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -218,6 +214,10 @@
   </si>
   <si>
     <t>https://2020.igem.org/Team:BOKU-Vienna/Results</t>
+  </si>
+  <si>
+    <t>BBid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -611,7 +611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -625,19 +625,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -648,13 +648,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1">
         <v>2019</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -662,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1">
         <v>2020</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -733,16 +733,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -751,7 +751,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -759,25 +759,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -785,16 +785,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -803,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -811,16 +811,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -829,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -837,25 +837,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -863,16 +863,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -889,16 +889,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -907,7 +907,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -915,16 +915,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -933,7 +933,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -941,16 +941,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1">
         <v>3</v>
@@ -959,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -967,16 +967,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1">
         <v>4</v>
@@ -985,7 +985,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -993,16 +993,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1">
         <v>4</v>
@@ -1011,7 +1011,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1019,16 +1019,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" s="1">
         <v>4</v>
@@ -1037,7 +1037,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1064,6 +1064,81 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
@@ -1087,34 +1162,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="J1" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1122,10 +1197,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4">
         <v>5</v>
@@ -1134,19 +1209,19 @@
         <v>950</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="4">
         <v>8</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" s="4">
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1154,10 +1229,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="4">
         <v>7</v>
@@ -1166,19 +1241,19 @@
         <v>1350</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="4">
         <v>8</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I3" s="4">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1186,10 +1261,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4">
         <v>5</v>
@@ -1198,19 +1273,19 @@
         <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="4">
         <v>8</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4" s="4">
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1218,10 +1293,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="4">
         <v>7</v>
@@ -1230,19 +1305,19 @@
         <v>20</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="4">
         <v>8</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5" s="4">
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1250,31 +1325,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="4">
         <v>500</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6" s="4">
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1282,31 +1357,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="4">
         <v>1000</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" s="4">
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1314,31 +1389,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="4">
         <v>50</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8" s="4">
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1346,31 +1421,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="4">
         <v>100</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9" s="4">
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1378,79 +1453,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/download/partdb.xlsx
+++ b/download/partdb.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mydocs\2021\학생\유병현\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="43170" windowHeight="18405" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="igem_team" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="58">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +217,14 @@
   </si>
   <si>
     <t>BBid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concunit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -306,7 +314,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -326,6 +334,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -612,19 +629,19 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="109.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -641,7 +658,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -658,7 +675,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -681,6 +698,7 @@
     <hyperlink ref="E2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -688,12 +706,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.5" bestFit="1" customWidth="1"/>
@@ -703,7 +722,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -729,7 +748,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -755,7 +774,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -781,7 +800,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -807,7 +826,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -833,7 +852,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -859,7 +878,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -885,7 +904,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -911,7 +930,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -937,7 +956,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -963,7 +982,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -989,7 +1008,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1015,7 +1034,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1068,17 +1087,18 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1089,7 +1109,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1100,7 +1120,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1111,7 +1131,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1122,7 +1142,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1140,28 +1160,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="51.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="51.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -1171,29 +1192,32 @@
         <v>30</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1202,30 +1226,29 @@
       <c r="C2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4">
+        <v>950</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="4">
         <v>5</v>
       </c>
-      <c r="E2" s="4">
-        <v>950</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="4">
-        <v>8</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="4">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1234,30 +1257,29 @@
       <c r="C3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <v>1350</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="4">
         <v>7</v>
       </c>
-      <c r="E3" s="4">
-        <v>1350</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="4">
-        <v>8</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="I3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1266,30 +1288,29 @@
       <c r="C4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="4">
         <v>5</v>
       </c>
-      <c r="E4" s="4">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="4">
-        <v>8</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="4">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="4">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1298,30 +1319,29 @@
       <c r="C5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>20</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="4">
         <v>7</v>
       </c>
-      <c r="E5" s="4">
-        <v>20</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="4">
-        <v>8</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="4">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="I5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1330,30 +1350,29 @@
       <c r="C6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
         <v>500</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="H6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="4">
         <v>3</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1362,30 +1381,29 @@
       <c r="C7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
         <v>1000</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="H7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="4">
         <v>3</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1394,30 +1412,29 @@
       <c r="C8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
         <v>50</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="4">
         <v>4</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1426,25 +1443,24 @@
       <c r="C9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
         <v>100</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="H9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="4">
         <v>4</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>54</v>
       </c>
     </row>
